--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1583.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1583.xlsx
@@ -351,16 +351,16 @@
         <v>0.9679688097937015</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1583.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1583.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9679688097937015</v>
+        <v>0.4923216998577118</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.617834746837616</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.8939529657363892</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.830603361129761</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>4.357608318328857</v>
       </c>
     </row>
   </sheetData>
